--- a/marks1.xlsx
+++ b/marks1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B482B8-EA0E-442F-BEC6-55ACC28CE75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F47529-DC3B-4801-A657-7953E42505FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B0923A3-3B8E-462B-9717-855AF849A337}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
   <si>
     <t>Sl.no</t>
   </si>
@@ -424,15 +424,6 @@
   </si>
   <si>
     <t>Mail Id</t>
-  </si>
-  <si>
-    <t>raomukund87@gmail.com</t>
-  </si>
-  <si>
-    <t>botteacher1234@gmail.com</t>
-  </si>
-  <si>
-    <t>kbckbckbc39@gmail.com</t>
   </si>
   <si>
     <t>EEE</t>
@@ -833,7 +824,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,14 +905,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
         <v>38</v>
       </c>
@@ -955,14 +944,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>34</v>
       </c>
@@ -996,14 +983,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1">
         <v>40</v>
       </c>
@@ -1037,14 +1022,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <v>10</v>
       </c>
@@ -1078,14 +1061,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <v>39</v>
       </c>
@@ -1124,9 +1105,7 @@
       <c r="C7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <v>38</v>
       </c>
@@ -1165,9 +1144,7 @@
       <c r="C8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <v>27</v>
       </c>
@@ -1206,9 +1183,7 @@
       <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <v>26</v>
       </c>
@@ -1247,9 +1222,7 @@
       <c r="C10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="1">
         <v>37</v>
       </c>
@@ -3268,13 +3241,7 @@
       <c r="S61" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{0B5C8580-3A29-4A80-B177-F3DB6D74CD95}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{DE6DB25F-06DE-4AE8-86CF-2AF72ACAAA34}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{703806EA-C133-44A3-8441-3288F05B9B39}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{8CE44B4D-EC51-4B2A-B86D-ADF22C10D54A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/marks1.xlsx
+++ b/marks1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F47529-DC3B-4801-A657-7953E42505FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA614A-94DA-4C25-ACFB-DA1E76E5C2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B0923A3-3B8E-462B-9717-855AF849A337}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6B" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -824,7 +824,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/marks1.xlsx
+++ b/marks1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA614A-94DA-4C25-ACFB-DA1E76E5C2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7520E16-3D2C-4D06-9430-6BC7747489CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B0923A3-3B8E-462B-9717-855AF849A337}"/>
   </bookViews>
@@ -429,21 +429,12 @@
     <t>EEE</t>
   </si>
   <si>
-    <t>FFF</t>
-  </si>
-  <si>
     <t>GGG</t>
   </si>
   <si>
-    <t>HHH</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
-    <t>JJJ</t>
-  </si>
-  <si>
     <t>Monika</t>
   </si>
   <si>
@@ -454,13 +445,22 @@
   </si>
   <si>
     <t>1BM21IS067</t>
+  </si>
+  <si>
+    <t>1BM21IS003</t>
+  </si>
+  <si>
+    <t>1BM21IS004</t>
+  </si>
+  <si>
+    <t>1BM21IS005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +472,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,12 +505,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,7 +834,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1">
@@ -944,10 +954,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1">
@@ -985,8 +995,8 @@
       <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1">
@@ -1022,10 +1032,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -1061,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1">
